--- a/note/note.xlsx
+++ b/note/note.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA0A77-8676-4B3A-84ED-69BB37DCE151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,26 +58,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.01.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LC001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy</t>
+    <t>2020.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目比较简单，用python一遍过，但是代码很不优雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array(str), num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array(str)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -412,9 +433,12 @@
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -442,8 +466,14 @@
       <c r="K2" t="s">
         <v>8</v>
       </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -457,7 +487,16 @@
         <v>12</v>
       </c>
       <c r="I3" s="2">
-        <v>0.2</v>
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/note/note.xlsx
+++ b/note/note.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA0A77-8676-4B3A-84ED-69BB37DCE151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888B3A6-D70E-4BCB-9173-85682052129D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Date1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,70 @@
   </si>
   <si>
     <t>array(str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较简单的合并，主要是python sort， 加上两个比较，代码不是很优雅，额外空间比较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">两种排序： sorted(intervals, key=lambda i: i.start);  intervals.sort(key= lambda e : e[0])； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC15 3Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double pointers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有想到解决方法，参考了discuss里的python答案，巧妙的使用了前后双指针，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list[list[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java新建数组列表： ans.add(Arrays.asList(nums[i], nums[left], nums[right]));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC18 4Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考了上面的解法，只是多了一层循环，多了一次去重判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未考虑3个零的情况 [0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个bug，第二层去重需要两个条件 [0,0,0,0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,10 +198,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M3"/>
+  <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,16 +494,18 @@
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" customWidth="1"/>
-    <col min="11" max="11" width="51.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.5546875" customWidth="1"/>
+    <col min="11" max="11" width="85.109375" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="102.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -472,8 +539,11 @@
       <c r="M2" t="s">
         <v>15</v>
       </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -497,6 +567,96 @@
       </c>
       <c r="M3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/note/note.xlsx
+++ b/note/note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888B3A6-D70E-4BCB-9173-85682052129D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6818A-8539-405D-A5D5-1FB22AAAED54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Date1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,46 @@
   </si>
   <si>
     <t>2个bug，第二层去重需要两个条件 [0,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC11 container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">double pointers </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针问题，主要是何时移动，何时结束，策略如何选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了答案的解法，将小的指针进行移动。  当想不到如何移动时，可以用图画出来，再思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未考虑到如何移动指针，2次未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC16 3Sum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list， num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码不是很优雅，也有点运气成分， 根据答案优化了解法，提升了时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N6"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -659,6 +699,64 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
